--- a/biology/Mycologie/Mycena_pura/Mycena_pura.xlsx
+++ b/biology/Mycologie/Mycena_pura/Mycena_pura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycena pura
 Mycena pura, le Mycène pur, est une espèce de champignons basidiomycètes de la famille des Mycenaceae.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau : 3 à 7 cm, convexe (mais pas pointu contrairement à beaucoup de mycènes) puis plus ou moins étalé, légèrement mamelonné, rose pur à violacé ou grisé, blanchissant par temps sec. Marge très mince, striée par les lames.
 Lames inégales, moyennement espacées, blanchâtres à rosées. Sporée blanche.
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Commun du printemps à l'automne, le mycène pur vient dans les sous-bois de feuillus comme de conifères.[réf. nécessaire]
 </t>
@@ -576,7 +592,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considéré comme comestible, quoique médiocre, il a été la cause d'intoxications. On se contentera donc d'admirer sa finesse et ses tons délicats.
 </t>
@@ -607,7 +625,9 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'un des plus grands mycènes. Son parent le plus proche, souvent considéré comme une simple variété, est le mycène rosé (Mycena rosea). D'un rose plus net, il a en général le pied clair.
 Les débutants veilleront à ne pas confondre l'un ou l'autre de ces mycènes avec le laccaire laqué ou le laccaire améthyste, de taille comparable et dont ils peuvent partager les emplacements. Ceux-ci présentent des teintes respectivement orangée et violette, des lames plus espacées, un pied plein, plus dur, et surtout aucune odeur de radis.
@@ -639,9 +659,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 novembre 2013)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 novembre 2013) :
 forme Mycena pura f. alba
 forme Mycena pura f. ianthina
 forme Mycena pura f. lutea
